--- a/outputs/OEV/clubs_uniques.xlsx
+++ b/outputs/OEV/clubs_uniques.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +429,372 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/PED00066</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2013-11-15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/PED00035</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2012-08-11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Les Pensees IV</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02064</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2009-07-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/00165</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2014-11-22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00279</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2008-06-24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>l'avenir  de Jesus 2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/S00397</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2013-05-15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
